--- a/Testdata/Templates/SearchStrategy/QOL.xlsx
+++ b/Testdata/Templates/SearchStrategy/QOL.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cytelinc.sharepoint.com/sites/PSESoftwareDevelopment/Shared Documents/2. Maintenance/1. LiveSLR/Protocols/Search strategies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\SearchStrategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A27FDC0E-7EF0-43DA-B5B4-E28EDCB760ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{094F9486-312D-4BC4-BAF3-B2D066031ABE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DD28E1-1363-45CA-855A-9F708C13520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E30121F1-2F69-417C-8D5A-5356C7CCF321}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E30121F1-2F69-417C-8D5A-5356C7CCF321}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,127 +35,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
-    <t>Line</t>
+    <t>Sl no</t>
   </si>
   <si>
-    <t>Term</t>
+    <t>PageName</t>
   </si>
   <si>
-    <t>Hits</t>
+    <t>SLRType</t>
   </si>
   <si>
-    <t>multiple myeloma/</t>
+    <t>Quality of Life</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>myeloma/ or multiple myeloma/</t>
-  </si>
-  <si>
-    <t>(myeloma$ or multiple-myeloma$ or Kahler$).ti,ab.</t>
-  </si>
-  <si>
-    <t>or/1-3</t>
-  </si>
-  <si>
-    <t>exp Maintenance Chemotherapy/</t>
-  </si>
-  <si>
-    <t>exp maintenance therapy/ or exp maintenance chemotherapy/</t>
-  </si>
-  <si>
-    <t>(maintenance or postconsolidation or post-consolidation or post-induction or postinduction or (post adj4 (induction or consolidation or transplant$)) or ((maintain$ or continu$) adj3 (chemotherap$ or treatment$ or therap$))).mp,af,tw.</t>
-  </si>
-  <si>
-    <t>or/5-7</t>
-  </si>
-  <si>
-    <t>4 and 8</t>
-  </si>
-  <si>
-    <t>Quality-Adjusted Life Years/ or quality adjusted life year/</t>
-  </si>
-  <si>
-    <t>(quality adjusted life$ or quality-adjusted life$ or  quality-adjusted-life$ or disability adjusted life$ or disability-adjusted life$ or disability-adjusted-life$).tw.</t>
-  </si>
-  <si>
-    <t>(QALY or qal$ or qwb$ or qald$ or qale$ or qtime$ or daly$).tw.</t>
-  </si>
-  <si>
-    <t>exp Health Status/ or exp Health Surveys/ or exp health survey/</t>
-  </si>
-  <si>
-    <t>(euroqol$ or euro qol$ or euro-qol$ or euroqual$ or euro qual$ or euro-qual$ or eq5d$ or eq 5d$ or eq-5d$ or eqoL-5d$ or eqoL5D$ or eqoL 5d$).tw.</t>
-  </si>
-  <si>
-    <t>(utilit$ or disutilit$).tw.</t>
-  </si>
-  <si>
-    <t>(hye$ or health$ year$ equivalent$ or hui$).tw.</t>
-  </si>
-  <si>
-    <t>(standard gamble$ or time-trade-off or time trade-off or time trade off or time tradeoff or discrete choice experiment$ or rosser).tw.</t>
-  </si>
-  <si>
-    <t>(willingness adj4 pay).tw.</t>
-  </si>
-  <si>
-    <t>(SG or TTO or WTP or DCE).tw.</t>
-  </si>
-  <si>
-    <t>((valu$ or measur$ or preference$) adj4 (health or outcome$ or effect$ or change$ or state$)).tw.</t>
-  </si>
-  <si>
-    <t>(VAS or visual analog$ scale$ or visual-analog$ scale$).tw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(sf-36$ or sf36$ or sf 36$ or sf thirtysix or sfthirtysix or sf-thirtysix or sf thirty six or sf-20$ or sf20$ or sf 20$ or sf twenty or sftwenty or sf-twenty or sf-12$ or sf12$ or sf 12$ or sf twelve or sftwelve or sf-twelve or sf-6$ or sf6$ or sf 6$ or sf six$ or sfsix$ or sf-six$ or short form$ or shortform$ or RAND$).tw. </t>
-  </si>
-  <si>
-    <t>or/10-22</t>
-  </si>
-  <si>
-    <t>4 and 23</t>
-  </si>
-  <si>
-    <t>(addresses or bibliography or biography or case report or comment or congresses or consensus development conference or duplicate publication or editorial or guideline or interview or lectures or letter or monograph or news or practice guideline or "review literature" or "review of reported cases" or review, academic or review, multicase or review, tutorial or twin study).pt.</t>
-  </si>
-  <si>
-    <t>(animals/ not (humans/ and animals/)) or (animal/ not (human/ and animal/))</t>
-  </si>
-  <si>
-    <t>case report/ or case reports/</t>
-  </si>
-  <si>
-    <t>or/25-27</t>
-  </si>
-  <si>
-    <t>24 not 28</t>
-  </si>
-  <si>
-    <t>abstract.pt.</t>
-  </si>
-  <si>
-    <t>limit 30 to 1860 - 2017</t>
-  </si>
-  <si>
-    <t>29 not 31</t>
-  </si>
-  <si>
-    <t>limit 32 to english language</t>
-  </si>
-  <si>
-    <t>Deduplicate</t>
+    <t>SearchStrategy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,39 +71,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2D2D2D"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
@@ -216,7 +86,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,16 +96,10 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4B277B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4B277B"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -258,94 +122,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="cellStyle" xfId="5" xr:uid="{7FE12BB0-63DD-489D-8FE1-47E2F4BBF196}"/>
@@ -664,403 +455,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACC610A-EB0D-497B-ABD2-58FCB922C6F6}">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F7CEDF-8D09-43C5-9DCC-79C4C3ABE344}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="110" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1">
-      <c r="A4" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="15.75">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="45">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="15.75">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="2" customFormat="1">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="2" customFormat="1">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="2" customFormat="1">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="2" customFormat="1">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="2" customFormat="1">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="2" customFormat="1">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="2" customFormat="1">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="45">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="2" customFormat="1">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="15.75">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="60">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="2" customFormat="1">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="2" customFormat="1">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="2" customFormat="1">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="2" customFormat="1">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="2" customFormat="1">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1069,24 +525,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aad8b0e827a3cbb82db805bd49dada19">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1addc3745f171cb8e6bf468ebd5ceb5" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -1323,6 +761,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1333,13 +789,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153F9257-D30A-4599-B9B3-D4F7F3A5DB14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11672556-7218-4F77-8CB0-B9F6D6D450DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11672556-7218-4F77-8CB0-B9F6D6D450DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153F9257-D30A-4599-B9B3-D4F7F3A5DB14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80D71887-F65D-48C5-99D3-20A5382079FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80D71887-F65D-48C5-99D3-20A5382079FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>